--- a/20220727-0106.xlsx
+++ b/20220727-0106.xlsx
@@ -16,13 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ファイル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2022/7/27  1:48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/10/15  23:57</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -46,12 +50,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,9 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -370,23 +382,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
